--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6405"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="26280" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>Item_number</t>
   </si>
   <si>
-    <t>1222519</t>
+    <t>1203023</t>
   </si>
   <si>
-    <t>2655791</t>
+    <t>1773764</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="26280" windowHeight="4755"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20580" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Item_number</t>
   </si>
   <si>
-    <t>1203023</t>
-  </si>
-  <si>
     <t>1773764</t>
   </si>
 </sst>
@@ -40,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +50,18 @@
       <color rgb="FF454545"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,10 +111,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -113,9 +123,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -420,14 +434,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,15 +459,15 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1203023</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -463,7 +477,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -475,7 +489,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -487,7 +501,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -499,7 +513,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -511,7 +525,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -523,7 +537,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -535,7 +549,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -547,7 +561,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -559,7 +573,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -571,7 +585,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -583,7 +597,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -595,7 +609,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -607,7 +621,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -619,7 +633,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -631,7 +645,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -643,7 +657,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -655,7 +669,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -679,7 +693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -691,7 +705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20580" windowHeight="4755"/>
+    <workbookView xWindow="-15" yWindow="4605" windowWidth="20580" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="6">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -30,7 +30,10 @@
     <t>Item_number</t>
   </si>
   <si>
-    <t>1773764</t>
+    <t>1198591</t>
+  </si>
+  <si>
+    <t>1205356</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,11 +466,11 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>1203023</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4626060</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -477,10 +480,16 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4626060</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -489,10 +498,16 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4626060</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -501,10 +516,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4626060</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -513,10 +534,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4626060</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -525,10 +552,16 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2716780</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -537,10 +570,16 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2716781</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -549,10 +588,16 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2716783</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -561,10 +606,16 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2716784</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -573,10 +624,16 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2716790</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -585,10 +642,16 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2716791</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -597,10 +660,16 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2716800</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -609,10 +678,16 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2716801</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -621,10 +696,16 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2716802</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -633,10 +714,16 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2716811</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -645,10 +732,16 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2716812</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -657,10 +750,16 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2716821</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -669,10 +768,16 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2716822</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -680,6 +785,31 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2716831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2716832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Item_number</t>
   </si>
   <si>
-    <t>1198591</t>
-  </si>
-  <si>
     <t>1205356</t>
   </si>
 </sst>
@@ -40,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,12 +57,6 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF454545"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -75,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,51 +74,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE2E2E2"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE2E2E2"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE2E2E2"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE2E2E2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -431,20 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,33 +413,19 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>4626060</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="C2" s="1">
+        <v>2716780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -488,17 +433,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>4626060</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,17 +444,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>4626060</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,17 +455,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>4626060</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,274 +466,121 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>4626060</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>2716780</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>2716781</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>2716783</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>2716784</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>2716790</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>2716791</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>2716800</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>2716801</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>2716802</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+        <v>2716831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>2716811</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2716812</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2716821</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2716822</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>2716831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
         <v>2716832</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B22" s="2"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -835,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="4605" windowWidth="20580" windowHeight="4665"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,8 +528,8 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
+      <c r="B12" s="2">
+        <v>1205356</v>
       </c>
       <c r="C12" s="1">
         <v>2716812</v>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4605" windowWidth="20580" windowHeight="4665"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -30,7 +30,58 @@
     <t>Item_number</t>
   </si>
   <si>
-    <t>1205356</t>
+    <t>1213991</t>
+  </si>
+  <si>
+    <t>1774135</t>
+  </si>
+  <si>
+    <t>1774136</t>
+  </si>
+  <si>
+    <t>1774137</t>
+  </si>
+  <si>
+    <t>1213989</t>
+  </si>
+  <si>
+    <t>1774138</t>
+  </si>
+  <si>
+    <t>1774139</t>
+  </si>
+  <si>
+    <t>1774140</t>
+  </si>
+  <si>
+    <t>1774141</t>
+  </si>
+  <si>
+    <t>1774123</t>
+  </si>
+  <si>
+    <t>1774124</t>
+  </si>
+  <si>
+    <t>1774125</t>
+  </si>
+  <si>
+    <t>1774126</t>
+  </si>
+  <si>
+    <t>1774127</t>
+  </si>
+  <si>
+    <t>1774128</t>
+  </si>
+  <si>
+    <t>1774129</t>
+  </si>
+  <si>
+    <t>1774130</t>
+  </si>
+  <si>
+    <t>1774131</t>
   </si>
 </sst>
 </file>
@@ -66,12 +117,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE2E2E2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE2E2E2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE2E2E2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE2E2E2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -84,8 +150,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -391,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +469,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,173 +480,181 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>2716780</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>2716781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>2716783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>2716784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>2716790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>2716791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>2716800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2716801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2716802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2716811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
-        <v>1205356</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2716812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2716821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2716822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2716831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2716832</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="5280"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20580" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,43 +45,43 @@
     <t>1213989</t>
   </si>
   <si>
+    <t>1774139</t>
+  </si>
+  <si>
+    <t>1774140</t>
+  </si>
+  <si>
+    <t>1774141</t>
+  </si>
+  <si>
+    <t>1774123</t>
+  </si>
+  <si>
+    <t>1774124</t>
+  </si>
+  <si>
+    <t>1774125</t>
+  </si>
+  <si>
+    <t>1774126</t>
+  </si>
+  <si>
+    <t>1774127</t>
+  </si>
+  <si>
+    <t>1774128</t>
+  </si>
+  <si>
+    <t>1774129</t>
+  </si>
+  <si>
+    <t>1774130</t>
+  </si>
+  <si>
+    <t>1774131</t>
+  </si>
+  <si>
     <t>1774138</t>
-  </si>
-  <si>
-    <t>1774139</t>
-  </si>
-  <si>
-    <t>1774140</t>
-  </si>
-  <si>
-    <t>1774141</t>
-  </si>
-  <si>
-    <t>1774123</t>
-  </si>
-  <si>
-    <t>1774124</t>
-  </si>
-  <si>
-    <t>1774125</t>
-  </si>
-  <si>
-    <t>1774126</t>
-  </si>
-  <si>
-    <t>1774127</t>
-  </si>
-  <si>
-    <t>1774128</t>
-  </si>
-  <si>
-    <t>1774129</t>
-  </si>
-  <si>
-    <t>1774130</t>
-  </si>
-  <si>
-    <t>1774131</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -666,9 +666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>1774138</t>
+  </si>
+  <si>
+    <t>1107294</t>
+  </si>
+  <si>
+    <t>1187648</t>
+  </si>
+  <si>
+    <t>2752105</t>
+  </si>
+  <si>
+    <t>1773503</t>
   </si>
 </sst>
 </file>
@@ -109,15 +121,21 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,17 +158,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,192 +523,91 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1173258</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1551234</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,19 +628,222 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1774123</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20580" windowHeight="5280"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -24,12 +24,12 @@
     <t>PO_NUMBER</t>
   </si>
   <si>
+    <t>Item_number</t>
+  </si>
+  <si>
     <t>06A</t>
   </si>
   <si>
-    <t>Item_number</t>
-  </si>
-  <si>
     <t>1213991</t>
   </si>
   <si>
@@ -42,18 +42,21 @@
     <t>1774137</t>
   </si>
   <si>
+    <t>1774138</t>
+  </si>
+  <si>
+    <t>1774139</t>
+  </si>
+  <si>
+    <t>1774140</t>
+  </si>
+  <si>
+    <t>1774141</t>
+  </si>
+  <si>
     <t>1213989</t>
   </si>
   <si>
-    <t>1774139</t>
-  </si>
-  <si>
-    <t>1774140</t>
-  </si>
-  <si>
-    <t>1774141</t>
-  </si>
-  <si>
     <t>1774123</t>
   </si>
   <si>
@@ -81,19 +84,34 @@
     <t>1774131</t>
   </si>
   <si>
-    <t>1774138</t>
-  </si>
-  <si>
-    <t>1107294</t>
-  </si>
-  <si>
-    <t>1187648</t>
-  </si>
-  <si>
-    <t>2752105</t>
-  </si>
-  <si>
-    <t>1773503</t>
+    <t>1222743</t>
+  </si>
+  <si>
+    <t>1717502</t>
+  </si>
+  <si>
+    <t>1717504</t>
+  </si>
+  <si>
+    <t>1717508</t>
+  </si>
+  <si>
+    <t>1717511</t>
+  </si>
+  <si>
+    <t>1222753</t>
+  </si>
+  <si>
+    <t>1222754</t>
+  </si>
+  <si>
+    <t>1222755</t>
+  </si>
+  <si>
+    <t>1717500</t>
+  </si>
+  <si>
+    <t>1717501</t>
   </si>
 </sst>
 </file>
@@ -130,12 +148,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,62 +176,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,109 +504,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1173258</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1551234</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -620,200 +657,201 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -823,27 +861,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1774123</v>
-      </c>
-      <c r="D1" s="7"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="5325"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20580" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -84,34 +84,19 @@
     <t>1774131</t>
   </si>
   <si>
-    <t>1222743</t>
-  </si>
-  <si>
-    <t>1717502</t>
-  </si>
-  <si>
-    <t>1717504</t>
-  </si>
-  <si>
     <t>1717508</t>
   </si>
   <si>
-    <t>1717511</t>
-  </si>
-  <si>
-    <t>1222753</t>
-  </si>
-  <si>
     <t>1222754</t>
   </si>
   <si>
-    <t>1222755</t>
-  </si>
-  <si>
-    <t>1717500</t>
-  </si>
-  <si>
-    <t>1717501</t>
+    <t>1217054</t>
+  </si>
+  <si>
+    <t>1774004</t>
+  </si>
+  <si>
+    <t>1774005</t>
   </si>
 </sst>
 </file>
@@ -504,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,123 +514,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -84,10 +84,10 @@
     <t>1774131</t>
   </si>
   <si>
+    <t>1222754</t>
+  </si>
+  <si>
     <t>1717508</t>
-  </si>
-  <si>
-    <t>1222754</t>
   </si>
   <si>
     <t>1217054</t>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -513,30 +513,42 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1225222</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1717525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2117161</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4000003</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -544,35 +556,47 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -587,7 +611,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -82,21 +82,6 @@
   </si>
   <si>
     <t>1774131</t>
-  </si>
-  <si>
-    <t>1222754</t>
-  </si>
-  <si>
-    <t>1717508</t>
-  </si>
-  <si>
-    <t>1217054</t>
-  </si>
-  <si>
-    <t>1774004</t>
-  </si>
-  <si>
-    <t>1774005</t>
   </si>
 </sst>
 </file>
@@ -138,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,12 +146,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE2E2E2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE2E2E2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE2E2E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +200,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,100 +526,87 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1225222</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1222791</v>
+      </c>
+      <c r="C2" s="11">
         <v>1717525</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2117161</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4000003</v>
-      </c>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1222971</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1717604</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="G4" s="6"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="6"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>

--- a/Resources/4-data.xlsx
+++ b/Resources/4-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>WH_NUMBER</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>1774131</t>
+  </si>
+  <si>
+    <t>1214862</t>
+  </si>
+  <si>
+    <t>1222031</t>
+  </si>
+  <si>
+    <t>2781170</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,25 +170,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE2E2E2"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE2E2E2"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE2E2E2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,16 +196,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,63 +517,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1222791</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1717525</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1774110</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1222971</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1717604</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1774111</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -593,26 +596,19 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
